--- a/results/I3_N5_M2_T45_C100_DepCentral_s2_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s2_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.149889551972</v>
+        <v>2278.104537925762</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.96988955196836</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.24157499077684</v>
+        <v>14.28179703790106</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.24157499077684</v>
+        <v>4.283234758917612</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1023.840000000003</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.34</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,20 +631,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494966</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>39.47131137385256</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.72363978430649</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.914544613657618</v>
+        <v>40.76506560089879</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.28323475891761</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.08545538634238</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,15 +1071,211 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.15499999999986</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>31.25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>30.69499999999985</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.62999999999985</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>141.5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>135.9050000000013</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>133.05</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>131.6350000000013</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.5700000000013</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>69.7199999999992</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>66.74499999999921</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>64.10499999999921</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>71.68499999999919</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>76.6799999999992</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>169.2299999999996</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>165.1549999999996</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>158.9949999999995</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>167.6249999999995</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>176.2549999999995</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>169.2299999999996</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>165.1549999999996</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>158.9949999999995</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6249999999995</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>176.2549999999995</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>141.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>135.9050000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>133.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>131.6350000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>132.5700000000013</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>69.22999999999956</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>65.15499999999957</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>58.99499999999955</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>67.62499999999955</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>76.25499999999954</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>35.90500000000131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>33.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.6350000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.5700000000013</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.879999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.045</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2076,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2087,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2098,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2109,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2120,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2131,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2142,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2153,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2164,12 +2349,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
